--- a/config_hlw/game_gift_style_config.xlsx
+++ b/config_hlw/game_gift_style_config.xlsx
@@ -348,30 +348,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"30万","40万","5万","240万","260万","10万","490万","520万","20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5万","15万","1","15万","35万","2","30万","60万","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万","50万","3","50万","70万","10万","90万","110万","20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"90万","100万","10万","240万","260万","10万","490万","520万","20万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"240万","260万","10万","490万","520万","20万","990万","1070万","30万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"490万","520万","20万","990万","1070万","30万","2490万","2640万","50万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>10778,10779,10780,</t>
   </si>
   <si>
@@ -388,6 +364,30 @@
   </si>
   <si>
     <t>10793,10794,10795,</t>
+  </si>
+  <si>
+    <t>"3万","4万","5000","24万","26万","1万","49万","52万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000","1.5万","1","1.5万","3.5万","2","3万","6万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万","5万","3","5万","7万","1万","9万","11万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9万","10万","1万","24万","26万","1万","49万","52万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"24万","26万","1万","49万","52万","2万","99万","107万","3万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"49万","52万","2万","99万","107万","3万","249万","264万","5万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -820,10 +820,10 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>46</v>
@@ -1040,7 +1040,7 @@
         <v>80</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>81</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>46</v>
@@ -1097,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>82</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>43</v>
@@ -1154,7 +1154,7 @@
         <v>41</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>83</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>43</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>84</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>43</v>
@@ -1268,7 +1268,7 @@
         <v>41</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="21" t="s">
         <v>84</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>43</v>
@@ -1325,7 +1325,7 @@
         <v>41</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="21" t="s">
         <v>84</v>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" activeCellId="5" sqref="H5 H8 H11 H14 H17 H20"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H5" activeCellId="6" sqref="H23 H20 H17 H14 H11 H8 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1365,14 +1365,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>10778</v>
+        <v>10796</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE(F5,$G$5,F6,$G$5,F7,$G$5,)</f>
-        <v>10778,10779,10780,</v>
+        <v>10796,10797,10798,</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>47</v>
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>10779</v>
+        <v>10797</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>48</v>
@@ -1399,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="6">
-        <v>10780</v>
+        <v>10798</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>49</v>
@@ -1410,11 +1410,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>10781</v>
+        <v>10799</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ref="H8:H62" si="0">CONCATENATE(F8,$G$5,F9,$G$5,F10,$G$5,)</f>
-        <v>10781,10782,10783,</v>
+        <v>10799,10800,10801,</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>50</v>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="6">
-        <v>10782</v>
+        <v>10800</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>51</v>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="6">
-        <v>10783</v>
+        <v>10801</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>52</v>
@@ -1451,11 +1451,11 @@
         <v>7</v>
       </c>
       <c r="F11" s="6">
-        <v>10784</v>
+        <v>10802</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>10784,10785,10786,</v>
+        <v>10802,10803,10804,</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>53</v>
@@ -1470,7 +1470,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6">
-        <v>10785</v>
+        <v>10803</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>54</v>
@@ -1481,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="6">
-        <v>10786</v>
+        <v>10804</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>55</v>
@@ -1492,11 +1492,11 @@
         <v>10</v>
       </c>
       <c r="F14" s="6">
-        <v>10787</v>
+        <v>10805</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>10787,10788,10789,</v>
+        <v>10805,10806,10807,</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>56</v>
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="6">
-        <v>10788</v>
+        <v>10806</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>57</v>
@@ -1522,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="6">
-        <v>10789</v>
+        <v>10807</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>58</v>
@@ -1533,11 +1533,11 @@
         <v>13</v>
       </c>
       <c r="F17" s="6">
-        <v>10790</v>
+        <v>10808</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>10790,10791,10792,</v>
+        <v>10808,10809,10810,</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>59</v>
@@ -1552,7 +1552,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>10791</v>
+        <v>10809</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>58</v>
@@ -1563,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="6">
-        <v>10792</v>
+        <v>10810</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>60</v>
@@ -1574,11 +1574,11 @@
         <v>16</v>
       </c>
       <c r="F20" s="6">
-        <v>10793</v>
+        <v>10811</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>10793,10794,10795,</v>
+        <v>10811,10812,10813,</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -1586,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="6">
-        <v>10794</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="22" spans="5:13">
@@ -1594,7 +1594,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="6">
-        <v>10795</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="23" spans="5:13">
@@ -1602,11 +1602,11 @@
         <v>19</v>
       </c>
       <c r="F23" s="6">
-        <v>10796</v>
+        <v>10814</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>10796,10122,10123,</v>
+        <v>10814,10815,10816,</v>
       </c>
       <c r="M23" t="s">
         <v>61</v>
@@ -1617,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="6">
-        <v>10122</v>
+        <v>10815</v>
       </c>
       <c r="M24" t="s">
         <v>62</v>
@@ -1628,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="6">
-        <v>10123</v>
+        <v>10816</v>
       </c>
       <c r="M25" t="s">
         <v>63</v>
@@ -2007,6 +2007,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_hlw/game_gift_style_config.xlsx
+++ b/config_hlw/game_gift_style_config.xlsx
@@ -366,27 +366,27 @@
     <t>10793,10794,10795,</t>
   </si>
   <si>
-    <t>"3万","4万","5000","24万","26万","1万","49万","52万","2万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5000","1.5万","1","1.5万","3.5万","2","3万","6万","3",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3万","5万","3","5万","7万","1万","9万","11万","2万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9万","10万","1万","24万","26万","1万","49万","52万","2万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"24万","26万","1万","49万","52万","2万","99万","107万","3万",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"49万","52万","2万","99万","107万","3万","249万","264万","5万",</t>
+    <t>"1万","1万","1","3万","2万","2","6万","3万","3",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6万","1万","5000","48万","2万","1万","98万","3万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6万","2万","3","10万","2万","1万","18万","2万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"18万","1万","1万","48万","2万","1万","98万","3万","2万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"48万","2万","1万","98万","3万","2万","198万","8万","3万",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"98万","3万","2万","198万","8万","3万","498万","15万","5万",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +823,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1040,7 +1040,7 @@
         <v>80</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="21" t="s">
         <v>81</v>
@@ -1097,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>82</v>
